--- a/medicine/Enfance/Cinq_jeunes_filles/Cinq_jeunes_filles.xlsx
+++ b/medicine/Enfance/Cinq_jeunes_filles/Cinq_jeunes_filles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cinq jeunes filles est une série française de treize romans d'aventures maritimes pour la jeunesse écrite par Georges-Gustave Toudouze et publiée de 1954 à 1967 aux éditions Hachette dans la collection Bibliothèque verte. La série n'est plus rééditée depuis 1979.
@@ -512,7 +524,9 @@
           <t>Le thème de la série</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cinq jeunes amies : trois Bretonnes (Martiale Cartier, les jumelles Marguerite et Geneviève Trévarec), une Parisienne (Marie-Antoinette Marolles, remplacée en cours de série par sa sœur Anne) et une Bourguignonne (Paulette Montrachet), naviguent le long des côtes européennes à bord de leur yacht, "L'Aréthuse". Le capitaine du yacht, Martiale Cartier, la descendante du navigateur Jacques Cartier. D'escale en escale, les jeunes filles rencontrent diverses personnes et aventures.
 </t>
@@ -543,7 +557,9 @@
           <t>L'auteur de la série</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les romans de la série Cinq jeunes filles sont les derniers de la longue carrière littéraire de Georges-Gustave Toudouze (1877-1972), commencée en l'année 1900. Romancier et historien breton, il a beaucoup écrit sur les thèmes de la mer et de la Bretagne, ses sujets de prédilection. Plusieurs de ses récits ont été couronnés par l'Académie française, notamment Le Petit Roi d'Ys en 1923. 
 Le style parfois emphatique, et l'abondance de vocabulaire maritime complexe, peuvent surprendre dans une série pour la jeunesse des années cinquante et soixante.
@@ -575,7 +591,9 @@
           <t>Liste des titres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cinq jeunes filles sur "L'Aréthuse" 1re édition : 1954, Illustrations de Henri Faivre, 256 p. Réédition : 1960, illustrations de Christian Dufour.
 Résumé : À bord de leur petit yacht l'Aréthuse, cinq jeunes navigatrices partent seules pour la Grèce à la recherche du célèbre métier à tisser de Pénélope, femme de l'Ulysse de la Mythologie. Elles vont rencontrer un  peintre qui recherche dans la Mer Ionienne le collier de perles de Sissi, l’impératrice d'Autriche...
